--- a/database/userdata.xlsx
+++ b/database/userdata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510"/>
+    <workbookView xWindow="210" yWindow="550" windowWidth="18880" windowHeight="6740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +53,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,68 +76,35 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +183,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,7 +217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -282,6 +240,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -292,31 +251,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -338,7 +297,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -396,7 +355,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -409,12 +368,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -433,66 +393,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" style="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+    <row r="2" spans="1:7">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>